--- a/data/trans_orig/Q04B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q04B-Edad-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>3.210022541500411</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>3.197863401819433</v>
+        <v>3.197863401819432</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.067253727048683</v>
+        <v>3.070881748899615</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.082010521017661</v>
+        <v>3.078277917840832</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.142926074914195</v>
+        <v>3.146888274477603</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.141054120225005</v>
+        <v>3.131307428374264</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.108106555827096</v>
+        <v>3.102872212222514</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.093623077090705</v>
+        <v>3.090367369304916</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.098666774203066</v>
+        <v>3.102043588271175</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.051752347050688</v>
+        <v>3.063689739622725</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.10436553474435</v>
+        <v>3.101075189740623</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.106591496288536</v>
+        <v>3.109070310854486</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3.147891051222139</v>
+        <v>3.14370943832419</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>3.122572291514271</v>
+        <v>3.130007655908811</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.216149057242237</v>
+        <v>3.222913775887292</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.223808142742786</v>
+        <v>3.217832493414705</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.335508293760287</v>
+        <v>3.334254168181429</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.349427132389942</v>
+        <v>3.362921001744045</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.245666584635938</v>
+        <v>3.239012247179507</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.238889379738043</v>
+        <v>3.243741844122038</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.268833276006941</v>
+        <v>3.268847601018056</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.235231193749398</v>
+        <v>3.237065343568959</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.209194697800719</v>
+        <v>3.206774900040014</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3.210793940896655</v>
+        <v>3.211797836074292</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3.277952155520862</v>
+        <v>3.271004877240039</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>3.267999064334738</v>
+        <v>3.271585204907474</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>3.121124424532792</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>3.091337718206723</v>
+        <v>3.091337718206722</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>2.986492125636141</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.925522318462415</v>
+        <v>2.93286442431493</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.908543136060183</v>
+        <v>2.912702770457422</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.006063430861316</v>
+        <v>3.009055306298933</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.109802900187284</v>
+        <v>3.101356275086369</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.9258195661495</v>
+        <v>2.925780417290831</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2.898045655718757</v>
+        <v>2.895848567458953</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>3.048521615114765</v>
+        <v>3.045921220326407</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>3.029094816245785</v>
+        <v>3.032910917171098</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.946892246560171</v>
+        <v>2.941108529251474</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2.914235432280029</v>
+        <v>2.919366883555092</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3.051513786199134</v>
+        <v>3.052993364854352</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>3.090962061259416</v>
+        <v>3.084197219799703</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.04046790434755</v>
+        <v>3.04564416695679</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.020835540921492</v>
+        <v>3.025176121706651</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.159265158454483</v>
+        <v>3.159336782884711</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.293812909648195</v>
+        <v>3.290993391314525</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.055444600680146</v>
+        <v>3.046730870868142</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.019919269726286</v>
+        <v>3.019000996671626</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.2068435030494</v>
+        <v>3.203038916638446</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.155688140837147</v>
+        <v>3.153282426648806</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.028296302438894</v>
+        <v>3.027112763431952</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3.000608416757558</v>
+        <v>3.002779112638995</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3.160547023302427</v>
+        <v>3.166689924117962</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>3.19669936911729</v>
+        <v>3.197909597254545</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.065993144485691</v>
+        <v>3.070364918208318</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.040146222905654</v>
+        <v>3.034301942906783</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.036807869664496</v>
+        <v>3.037443994077368</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.05670852261295</v>
+        <v>3.052101930289279</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.100092049562555</v>
+        <v>3.101716819333219</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.009074848371708</v>
+        <v>3.015987137107573</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.050891313984565</v>
+        <v>3.052764401693956</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.090162660971853</v>
+        <v>3.092517833378298</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.105400409411562</v>
+        <v>3.103170304846091</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3.03946551951835</v>
+        <v>3.042228362137865</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3.061124891327145</v>
+        <v>3.05599719112273</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>3.088624775512722</v>
+        <v>3.08602493707863</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.178678746899668</v>
+        <v>3.179915556994241</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.162176549296561</v>
+        <v>3.162820616582617</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.173795979476593</v>
+        <v>3.176559091747206</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.180231473186313</v>
+        <v>3.189018334662097</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.210346752868355</v>
+        <v>3.212568956370772</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.118545829032604</v>
+        <v>3.116750121615416</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.172704108069036</v>
+        <v>3.174727303138877</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.187528382933269</v>
+        <v>3.186864492426234</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.180071416764467</v>
+        <v>3.184323539787151</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3.117444505204242</v>
+        <v>3.123113087793578</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3.154971392331116</v>
+        <v>3.153390454779986</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>3.172576820640872</v>
+        <v>3.168688648602051</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>3.179240592951468</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>3.188098131653628</v>
+        <v>3.188098131653629</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.109209512668718</v>
+        <v>3.117242782726521</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.04132178898662</v>
+        <v>3.045596144530797</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.095677945573813</v>
+        <v>3.095352575242305</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.102148998314151</v>
+        <v>3.103255632766055</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.134735095395139</v>
+        <v>3.129092636528406</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.109830613865677</v>
+        <v>3.110159558299411</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>3.127304017825186</v>
+        <v>3.130626062336531</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>3.171057823412375</v>
+        <v>3.173379419741835</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.138967819980235</v>
+        <v>3.140457389076508</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3.092242064373429</v>
+        <v>3.092692792870807</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3.134091531511237</v>
+        <v>3.126610625662762</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>3.153394724560278</v>
+        <v>3.154440289522217</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.240365869383838</v>
+        <v>3.250817604642258</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.160802297860374</v>
+        <v>3.156565558211513</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.238824474565439</v>
+        <v>3.246077077668485</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.218200283460042</v>
+        <v>3.223559319676272</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.253012388628518</v>
+        <v>3.257207102986042</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.226113854928437</v>
+        <v>3.227715098275059</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>3.259880806557397</v>
+        <v>3.262801424449211</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.251184220988954</v>
+        <v>3.259364597313474</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.227821977433563</v>
+        <v>3.231840678539951</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3.172852135922824</v>
+        <v>3.174752076826456</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3.23832394037707</v>
+        <v>3.227266836775835</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>3.227581757696142</v>
+        <v>3.224847856410519</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>3.237831554785653</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>3.239859077149704</v>
+        <v>3.239859077149703</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.099068165844262</v>
+        <v>3.0901412369826</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.993435671449751</v>
+        <v>2.992404429487586</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.173443336788651</v>
+        <v>3.182493578318432</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.163642378706863</v>
+        <v>3.162970222072448</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.087146869740723</v>
+        <v>3.094990914451893</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.043057596953442</v>
+        <v>3.035578695375655</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.125139569617867</v>
+        <v>3.125984046830326</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.210192076000546</v>
+        <v>3.198012014771436</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.116226769153711</v>
+        <v>3.115271174179287</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3.035619080761383</v>
+        <v>3.035898497102994</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3.174264330864375</v>
+        <v>3.173022324051915</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>3.198639596184839</v>
+        <v>3.200705543515422</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.235961899564491</v>
+        <v>3.23036217096238</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.135652666359717</v>
+        <v>3.130715079151113</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.353353536876533</v>
+        <v>3.347535604529968</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.291783800226753</v>
+        <v>3.292425558118096</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.225562004402389</v>
+        <v>3.227579579712635</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.185727886068174</v>
+        <v>3.187885552149064</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.314940020690808</v>
+        <v>3.304075039999483</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.299139325725982</v>
+        <v>3.299082783728476</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.212116313786229</v>
+        <v>3.209287724912631</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3.139043192298715</v>
+        <v>3.140401179663598</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3.297667671586316</v>
+        <v>3.292144753229585</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>3.27649836868534</v>
+        <v>3.277462939442736</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>3.139133778475403</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.231237781752317</v>
+        <v>3.231237781752316</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>2.998752509107654</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.968446051408889</v>
+        <v>2.966070955710895</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.873126435396774</v>
+        <v>2.866485023675751</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.046212233932546</v>
+        <v>3.050121099399286</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.161903344179711</v>
+        <v>3.166434135953004</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.931169425975777</v>
+        <v>2.920062519218635</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>2.946708584798302</v>
+        <v>2.942017924401544</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>3.079749426751229</v>
+        <v>3.082790594365565</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>3.213215807746227</v>
+        <v>3.209592955165825</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>2.965095311422508</v>
+        <v>2.969253317104574</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2.932479536677502</v>
+        <v>2.932576647948071</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3.095994707096536</v>
+        <v>3.096698371962779</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>3.200599726653687</v>
+        <v>3.205900364753138</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.134174202659975</v>
+        <v>3.124777887583515</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.079085295323317</v>
+        <v>3.072500938267024</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.245857886037369</v>
+        <v>3.247991284133512</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.302200761530659</v>
+        <v>3.303075858581003</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.072991627614135</v>
+        <v>3.071208729012132</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>3.121185738326022</v>
+        <v>3.113710449438329</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>3.273534471292109</v>
+        <v>3.281278489230285</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>3.315996192725259</v>
+        <v>3.319761040187037</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>3.073144772285216</v>
+        <v>3.077913179871762</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3.066183455271537</v>
+        <v>3.06886736349469</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3.234942443503269</v>
+        <v>3.230991548397257</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>3.287435854692676</v>
+        <v>3.293319930439143</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>3.143109011941675</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3.246920431092883</v>
+        <v>3.246920431092882</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>2.845440621690978</v>
@@ -1497,7 +1497,7 @@
         <v>3.282006535554879</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>3.191147580873647</v>
+        <v>3.191147580873646</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>2.868817797577226</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.796331613833974</v>
+        <v>2.806803358077039</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.82084911856899</v>
+        <v>2.840683305841973</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.035430909758358</v>
+        <v>3.037333719426141</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.17953367520043</v>
+        <v>3.176264338012055</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.76484216654494</v>
+        <v>2.76590287272572</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.76664131284249</v>
+        <v>2.776251065848927</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.175843694778465</v>
+        <v>3.182804482903423</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.143016394069628</v>
+        <v>3.140201980770339</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.807324674620563</v>
+        <v>2.808963288067136</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2.826647662415106</v>
+        <v>2.82311695471691</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3.147517881091572</v>
+        <v>3.154147114715984</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>3.166594309162565</v>
+        <v>3.17181535747387</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.013045779434395</v>
+        <v>3.029694601027687</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.024978390745118</v>
+        <v>3.033651432989628</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.257982925159329</v>
+        <v>3.241924688577641</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.329483032061159</v>
+        <v>3.330192174903601</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.913812493952272</v>
+        <v>2.924789859348788</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.944508342719326</v>
+        <v>2.954139103577325</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.408389539232707</v>
+        <v>3.420664192726937</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.244258728639199</v>
+        <v>3.243298299415143</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.926477059247541</v>
+        <v>2.937612138595781</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2.950987541346628</v>
+        <v>2.950752999595228</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>3.305078838534781</v>
+        <v>3.316743185110472</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>3.262116291233375</v>
+        <v>3.257958406033667</v>
       </c>
     </row>
     <row r="25">
@@ -1645,7 +1645,7 @@
         <v>3.166566917554041</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>3.19030285614805</v>
+        <v>3.190302856148051</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.063022082265296</v>
+        <v>3.065614088941859</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.0208915103551</v>
+        <v>3.024802789639986</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.12774836782364</v>
+        <v>3.126241231720202</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.163814384263349</v>
+        <v>3.163894288606149</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>3.061623565555469</v>
+        <v>3.062048595341742</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>3.028926257179146</v>
+        <v>3.028281582204472</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>3.143401961487057</v>
+        <v>3.144107488652554</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>3.166741536256982</v>
+        <v>3.166481460045382</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>3.069282273188272</v>
+        <v>3.070088953487561</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3.033388109678149</v>
+        <v>3.034513169280482</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3.14525178911658</v>
+        <v>3.145847755490431</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>3.173839644616713</v>
+        <v>3.172321724017874</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.115856355727608</v>
+        <v>3.118086214821792</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.078213074816071</v>
+        <v>3.079025864842256</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.190296805341144</v>
+        <v>3.190441049006361</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.221985122882554</v>
+        <v>3.221494693009212</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>3.111848746747726</v>
+        <v>3.111912367800636</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>3.078518856966284</v>
+        <v>3.080767373803869</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>3.208965445374361</v>
+        <v>3.205423213515294</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>3.208989461740478</v>
+        <v>3.209483191302294</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>3.104426624204873</v>
+        <v>3.1058014523283</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3.068930546542401</v>
+        <v>3.07124740243636</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3.188734177036034</v>
+        <v>3.190934742057503</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>3.209312859288441</v>
+        <v>3.209352476543527</v>
       </c>
     </row>
     <row r="28">
